--- a/Code/Results/Cases/Case_1_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.52284598619228</v>
+        <v>20.14898406622666</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.0416230550979</v>
+        <v>9.103772783116531</v>
       </c>
       <c r="E2">
-        <v>21.02651278589154</v>
+        <v>11.58465725634919</v>
       </c>
       <c r="F2">
-        <v>51.37739860535029</v>
+        <v>59.28311112824244</v>
       </c>
       <c r="G2">
-        <v>2.069061896886417</v>
+        <v>3.799807561985865</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.60295428887466</v>
+        <v>33.49926481469001</v>
       </c>
       <c r="J2">
-        <v>10.90191064041555</v>
+        <v>8.455793553752775</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.20523766551095</v>
+        <v>17.7474390357584</v>
       </c>
       <c r="M2">
-        <v>18.51309899965773</v>
+        <v>22.19491516287845</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.32661696945001</v>
+        <v>19.91696896012324</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.93698475165854</v>
+        <v>8.787789735066696</v>
       </c>
       <c r="E3">
-        <v>19.47993981927634</v>
+        <v>10.99632891769642</v>
       </c>
       <c r="F3">
-        <v>49.10284885113509</v>
+        <v>59.11773098006928</v>
       </c>
       <c r="G3">
-        <v>2.090717696227848</v>
+        <v>3.806726861283785</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.85378902630537</v>
+        <v>33.65908640749824</v>
       </c>
       <c r="J3">
-        <v>10.27828502591931</v>
+        <v>8.226498626224645</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.27516747467907</v>
+        <v>17.61413639402893</v>
       </c>
       <c r="M3">
-        <v>17.54590644575474</v>
+        <v>22.07287425272835</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56924186806455</v>
+        <v>19.77793981204041</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.23664319237828</v>
+        <v>8.59189632741643</v>
       </c>
       <c r="E4">
-        <v>18.49584701120581</v>
+        <v>10.62257600829984</v>
       </c>
       <c r="F4">
-        <v>47.75386784003535</v>
+        <v>59.03565646412804</v>
       </c>
       <c r="G4">
-        <v>2.10409385319101</v>
+        <v>3.811185251101532</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.0356849165343</v>
+        <v>33.76445150680171</v>
       </c>
       <c r="J4">
-        <v>9.885058421509889</v>
+        <v>8.081128539723206</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.69740916708222</v>
+        <v>17.53656073116909</v>
       </c>
       <c r="M4">
-        <v>16.9449577349816</v>
+        <v>22.00276621772091</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.25490583144261</v>
+        <v>19.72220769253986</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.94526042085489</v>
+        <v>8.511735039951855</v>
       </c>
       <c r="E5">
-        <v>18.08560971505952</v>
+        <v>10.46733511127227</v>
       </c>
       <c r="F5">
-        <v>47.21559419539141</v>
+        <v>59.0070940741988</v>
       </c>
       <c r="G5">
-        <v>2.109577836026044</v>
+        <v>3.813055141024926</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.11615401753644</v>
+        <v>33.80919890771148</v>
       </c>
       <c r="J5">
-        <v>9.722092991885493</v>
+        <v>8.020780404891415</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.46027928612882</v>
+        <v>17.5060462750766</v>
       </c>
       <c r="M5">
-        <v>16.69835690110741</v>
+        <v>21.97542982131174</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.20236969426954</v>
+        <v>19.71301093874078</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.89650337996278</v>
+        <v>8.498408458140581</v>
       </c>
       <c r="E6">
-        <v>18.01691954479238</v>
+        <v>10.44138723012389</v>
       </c>
       <c r="F6">
-        <v>47.12689372417201</v>
+        <v>59.00264579514389</v>
       </c>
       <c r="G6">
-        <v>2.110490794668582</v>
+        <v>3.813368847574282</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.12988131078108</v>
+        <v>33.81673826271723</v>
       </c>
       <c r="J6">
-        <v>9.694865430610294</v>
+        <v>8.010694025498124</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.42080360825765</v>
+        <v>17.50104636198404</v>
       </c>
       <c r="M6">
-        <v>16.65730952055996</v>
+        <v>21.9709656583058</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.56502556088378</v>
+        <v>19.77718437093118</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.23273827503942</v>
+        <v>8.590816401919072</v>
       </c>
       <c r="E7">
-        <v>18.49035235820669</v>
+        <v>10.62049394513854</v>
       </c>
       <c r="F7">
-        <v>47.74656270425838</v>
+        <v>59.03525150855828</v>
       </c>
       <c r="G7">
-        <v>2.104167662117634</v>
+        <v>3.811210253886403</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.03674527452214</v>
+        <v>33.76504766757516</v>
       </c>
       <c r="J7">
-        <v>9.882871770782089</v>
+        <v>8.080319092426116</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.69421793030987</v>
+        <v>17.53614472570821</v>
       </c>
       <c r="M7">
-        <v>16.94163875342201</v>
+        <v>22.00239253152195</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.11514088674845</v>
+        <v>20.06831072099707</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.66504646777301</v>
+        <v>8.995292163529303</v>
       </c>
       <c r="E8">
-        <v>20.50006174459686</v>
+        <v>11.38451753608863</v>
       </c>
       <c r="F8">
-        <v>50.58287554636244</v>
+        <v>59.22204168870627</v>
       </c>
       <c r="G8">
-        <v>2.076520860683583</v>
+        <v>3.802149935842095</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.68322422897941</v>
+        <v>33.55286454894107</v>
       </c>
       <c r="J8">
-        <v>10.68893376161671</v>
+        <v>8.377708701307926</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.88590524982294</v>
+        <v>17.70060439783912</v>
       </c>
       <c r="M8">
-        <v>18.18109891618899</v>
+        <v>22.15184629211426</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.11077411262319</v>
+        <v>20.66366138618157</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.32224808789914</v>
+        <v>9.767969421470667</v>
       </c>
       <c r="E9">
-        <v>24.19706595640861</v>
+        <v>12.94170761164079</v>
       </c>
       <c r="F9">
-        <v>56.55971702995285</v>
+        <v>59.74308241851836</v>
       </c>
       <c r="G9">
-        <v>2.022218877192926</v>
+        <v>3.786035624901043</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.24689326189185</v>
+        <v>33.194573433328</v>
       </c>
       <c r="J9">
-        <v>12.19643345065518</v>
+        <v>8.922802476270842</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.37809231530891</v>
+        <v>18.05587311625532</v>
       </c>
       <c r="M9">
-        <v>20.89706569929877</v>
+        <v>22.48226736156673</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.32842850922096</v>
+        <v>21.1122194472147</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.22405066435057</v>
+        <v>10.3164410105269</v>
       </c>
       <c r="E10">
-        <v>26.81711323366639</v>
+        <v>14.04903400705951</v>
       </c>
       <c r="F10">
-        <v>61.28529254372005</v>
+        <v>60.22019368744353</v>
       </c>
       <c r="G10">
-        <v>1.98100367240993</v>
+        <v>3.775186408730531</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.14356573694022</v>
+        <v>32.96713553542423</v>
       </c>
       <c r="J10">
-        <v>13.27702017881897</v>
+        <v>9.298001782815417</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.37925980308349</v>
+        <v>18.33522376158716</v>
       </c>
       <c r="M10">
-        <v>23.09770647556203</v>
+        <v>22.74642249970837</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.31302848678787</v>
+        <v>21.31789890798592</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.09132904470121</v>
+        <v>10.5605838429943</v>
       </c>
       <c r="E11">
-        <v>28.00458909368239</v>
+        <v>14.52526647853484</v>
       </c>
       <c r="F11">
-        <v>63.53796947176136</v>
+        <v>60.45758442932026</v>
       </c>
       <c r="G11">
-        <v>1.961573502505765</v>
+        <v>3.770461949975112</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.16134610828373</v>
+        <v>32.87156800252384</v>
       </c>
       <c r="J11">
-        <v>13.76882149743064</v>
+        <v>9.462831948040556</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.28085455266078</v>
+        <v>18.46591030332662</v>
       </c>
       <c r="M11">
-        <v>24.08119455789646</v>
+        <v>22.87091817902524</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.68326149298098</v>
+        <v>21.39595175679062</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.42156555678786</v>
+        <v>10.65217820456376</v>
       </c>
       <c r="E12">
-        <v>28.45552974352603</v>
+        <v>14.70166858706045</v>
       </c>
       <c r="F12">
-        <v>64.40964351857568</v>
+        <v>60.55038281411777</v>
       </c>
       <c r="G12">
-        <v>1.95407226386029</v>
+        <v>3.768702945745825</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.17929840653017</v>
+        <v>32.83652543529168</v>
       </c>
       <c r="J12">
-        <v>13.95582337112294</v>
+        <v>9.524380959978568</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.62222828866075</v>
+        <v>18.51588326675707</v>
       </c>
       <c r="M12">
-        <v>24.45223001183367</v>
+        <v>22.91865519168595</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.60362464529536</v>
+        <v>21.37913533962686</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.350333166242</v>
+        <v>10.63249111543547</v>
       </c>
       <c r="E13">
-        <v>28.35831829796069</v>
+        <v>14.66385203853512</v>
       </c>
       <c r="F13">
-        <v>64.22100763855164</v>
+        <v>60.53026830372915</v>
       </c>
       <c r="G13">
-        <v>1.955695050084554</v>
+        <v>3.769080446991579</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.17489781106233</v>
+        <v>32.84402128928639</v>
       </c>
       <c r="J13">
-        <v>13.91550061982243</v>
+        <v>9.511164314114136</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.54868562361219</v>
+        <v>18.50509968397329</v>
       </c>
       <c r="M13">
-        <v>24.37236079878937</v>
+        <v>22.9083482685589</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.34353421421853</v>
+        <v>21.32431740959687</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.11845103447593</v>
+        <v>10.56813700586099</v>
       </c>
       <c r="E14">
-        <v>28.04164976559526</v>
+        <v>14.53985798200242</v>
       </c>
       <c r="F14">
-        <v>63.60928213140098</v>
+        <v>60.46516096543761</v>
       </c>
       <c r="G14">
-        <v>1.96095955776925</v>
+        <v>3.770316635098171</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.1625856706826</v>
+        <v>32.86866197931935</v>
       </c>
       <c r="J14">
-        <v>13.78418577363984</v>
+        <v>9.467913176353221</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.30893205722483</v>
+        <v>18.47001209090207</v>
       </c>
       <c r="M14">
-        <v>24.11173996449201</v>
+        <v>22.8748338154356</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.1839113000151</v>
+        <v>21.29075953823999</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>18.97670599030677</v>
+        <v>10.52860422491552</v>
       </c>
       <c r="E15">
-        <v>27.84791303583029</v>
+        <v>14.46339588905622</v>
       </c>
       <c r="F15">
-        <v>63.23714698347007</v>
+        <v>60.42565820947424</v>
       </c>
       <c r="G15">
-        <v>1.964163948016338</v>
+        <v>3.77107774045368</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.15656940252534</v>
+        <v>32.88390480456717</v>
       </c>
       <c r="J15">
-        <v>13.70387758229666</v>
+        <v>9.441306727810586</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.16211331755675</v>
+        <v>18.44858203786578</v>
       </c>
       <c r="M15">
-        <v>23.95196078807858</v>
+        <v>22.85438160602085</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.26366372493175</v>
+        <v>21.09880477053103</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.16753390216363</v>
+        <v>10.30037022246543</v>
       </c>
       <c r="E16">
-        <v>26.73957013618814</v>
+        <v>14.01735923148753</v>
       </c>
       <c r="F16">
-        <v>61.14044350320667</v>
+        <v>60.20508734059523</v>
       </c>
       <c r="G16">
-        <v>1.982256186828975</v>
+        <v>3.77549938308445</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.14386024359347</v>
+        <v>32.97354094183929</v>
       </c>
       <c r="J16">
-        <v>13.24494188556347</v>
+        <v>9.2871096185787</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.32025839050364</v>
+        <v>18.32675280554567</v>
       </c>
       <c r="M16">
-        <v>23.03316925640033</v>
+        <v>22.73837105188995</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.69345960119005</v>
+        <v>20.98141534047983</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.67262017670831</v>
+        <v>10.15891848896422</v>
       </c>
       <c r="E17">
-        <v>26.05969428426015</v>
+        <v>13.73669947336092</v>
       </c>
       <c r="F17">
-        <v>59.88287554819212</v>
+        <v>60.0749722165514</v>
       </c>
       <c r="G17">
-        <v>1.993152380612069</v>
+        <v>3.778265735104799</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.15387916372671</v>
+        <v>33.03055999830432</v>
       </c>
       <c r="J17">
-        <v>12.96391074000721</v>
+        <v>9.190995933292697</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.80232569694572</v>
+        <v>18.25291475682493</v>
       </c>
       <c r="M17">
-        <v>22.46572743578822</v>
+        <v>22.66829075083551</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.36314885193874</v>
+        <v>20.91405329373957</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.38804833300379</v>
+        <v>10.07705921973924</v>
       </c>
       <c r="E18">
-        <v>25.66809278920744</v>
+        <v>13.57268222685081</v>
       </c>
       <c r="F18">
-        <v>59.16895458336909</v>
+        <v>60.00205066128411</v>
       </c>
       <c r="G18">
-        <v>1.99935883800061</v>
+        <v>3.779876735878838</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.16560379249291</v>
+        <v>33.06409827050709</v>
       </c>
       <c r="J18">
-        <v>12.80223594125163</v>
+        <v>9.135164703303607</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.50351107691158</v>
+        <v>18.21078681706385</v>
       </c>
       <c r="M18">
-        <v>22.13760993080268</v>
+        <v>22.62839182593248</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.25088616425731</v>
+        <v>20.89127474547511</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.29167359204223</v>
+        <v>10.04926001168367</v>
       </c>
       <c r="E19">
-        <v>25.5353588924207</v>
+        <v>13.51670361829569</v>
       </c>
       <c r="F19">
-        <v>58.92875219286555</v>
+        <v>59.97769055493888</v>
       </c>
       <c r="G19">
-        <v>2.001450980970559</v>
+        <v>3.780425614011015</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.17054639058931</v>
+        <v>33.07558091972426</v>
       </c>
       <c r="J19">
-        <v>12.74747132532894</v>
+        <v>9.116167770558986</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.40214923598282</v>
+        <v>18.19658274212692</v>
       </c>
       <c r="M19">
-        <v>22.02618650218899</v>
+        <v>22.61495393356644</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.7543959507855</v>
+        <v>20.99389586406276</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.72528581626972</v>
+        <v>10.17402867202632</v>
       </c>
       <c r="E20">
-        <v>26.13211367812116</v>
+        <v>13.76684403491303</v>
       </c>
       <c r="F20">
-        <v>60.01574963785922</v>
+        <v>60.08862491421206</v>
       </c>
       <c r="G20">
-        <v>1.991999036210097</v>
+        <v>3.777969197958515</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.15218317526075</v>
+        <v>33.02441330279088</v>
       </c>
       <c r="J20">
-        <v>12.99382585204978</v>
+        <v>9.201284445263918</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.85754737171508</v>
+        <v>18.2607398174844</v>
       </c>
       <c r="M20">
-        <v>22.52630543904648</v>
+        <v>22.67570875643645</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.41999173591564</v>
+        <v>21.34041477946191</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.18649671693217</v>
+        <v>10.58706327197217</v>
       </c>
       <c r="E21">
-        <v>28.1346103802187</v>
+        <v>14.57638474174765</v>
       </c>
       <c r="F21">
-        <v>63.78841738830926</v>
+        <v>60.48420597421145</v>
       </c>
       <c r="G21">
-        <v>1.959417571317349</v>
+        <v>3.76995272350765</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.1658801140611</v>
+        <v>32.86139319488115</v>
       </c>
       <c r="J21">
-        <v>13.82272820051119</v>
+        <v>9.480640860664957</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.37934299655025</v>
+        <v>18.48030528554079</v>
       </c>
       <c r="M21">
-        <v>24.18831754284133</v>
+        <v>22.88466196308875</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.4939421030208</v>
+        <v>21.56782485884973</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>20.15316163622141</v>
+        <v>10.85197557868233</v>
       </c>
       <c r="E22">
-        <v>29.45212887734618</v>
+        <v>15.0825287064136</v>
       </c>
       <c r="F22">
-        <v>66.36562050541303</v>
+        <v>60.75965123602337</v>
       </c>
       <c r="G22">
-        <v>1.937254841032093</v>
+        <v>3.764888491615592</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.24147254027327</v>
+        <v>32.7615400188303</v>
       </c>
       <c r="J22">
-        <v>14.36948099775621</v>
+        <v>9.658142986035438</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.37456099099664</v>
+        <v>18.62661352816326</v>
       </c>
       <c r="M22">
-        <v>25.26724485408948</v>
+        <v>23.02466827444046</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.92172795164029</v>
+        <v>21.44638787110157</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.63553142037433</v>
+        <v>10.71107309643008</v>
       </c>
       <c r="E23">
-        <v>28.74734219681344</v>
+        <v>14.81448291778657</v>
       </c>
       <c r="F23">
-        <v>64.9782428954618</v>
+        <v>60.61110263108225</v>
       </c>
       <c r="G23">
-        <v>1.949182092972481</v>
+        <v>3.767575448818685</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.19427313485546</v>
+        <v>32.81421753613124</v>
       </c>
       <c r="J23">
-        <v>14.07689595390488</v>
+        <v>9.563879257379353</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.8428260259853</v>
+        <v>18.54828044544739</v>
       </c>
       <c r="M23">
-        <v>24.69159375805765</v>
+        <v>22.94963918628403</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.72685445343275</v>
+        <v>20.98825301956761</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.70147591023695</v>
+        <v>10.16719902354935</v>
       </c>
       <c r="E24">
-        <v>26.09937528440721</v>
+        <v>13.75322397211078</v>
       </c>
       <c r="F24">
-        <v>59.95564927385929</v>
+        <v>60.08244666169225</v>
       </c>
       <c r="G24">
-        <v>1.992520640360395</v>
+        <v>3.778103198252965</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.1529314905821</v>
+        <v>33.02718986601108</v>
       </c>
       <c r="J24">
-        <v>12.98030161256096</v>
+        <v>9.196634795370674</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.83258500390285</v>
+        <v>18.25720110034989</v>
       </c>
       <c r="M24">
-        <v>22.49892408444076</v>
+        <v>22.67235385546218</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.26806089081536</v>
+        <v>20.50037099996322</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.61586742328443</v>
+        <v>9.561870708379365</v>
       </c>
       <c r="E25">
-        <v>23.21834186903148</v>
+        <v>12.50943926121774</v>
       </c>
       <c r="F25">
-        <v>54.89180829096993</v>
+        <v>59.58553917939218</v>
       </c>
       <c r="G25">
-        <v>2.037031916396334</v>
+        <v>3.790219839928816</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.33185798187981</v>
+        <v>33.28525582773582</v>
       </c>
       <c r="J25">
-        <v>11.79496017315824</v>
+        <v>8.779643782359665</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.62699497794189</v>
+        <v>17.95641902724421</v>
       </c>
       <c r="M25">
-        <v>20.06501638745478</v>
+        <v>22.38901748646011</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.14898406622666</v>
+        <v>19.52284598619228</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.103772783116531</v>
+        <v>14.04162305509799</v>
       </c>
       <c r="E2">
-        <v>11.58465725634919</v>
+        <v>21.02651278589167</v>
       </c>
       <c r="F2">
-        <v>59.28311112824244</v>
+        <v>51.37739860535031</v>
       </c>
       <c r="G2">
-        <v>3.799807561985865</v>
+        <v>2.06906189688641</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.49926481469001</v>
+        <v>21.60295428887465</v>
       </c>
       <c r="J2">
-        <v>8.455793553752775</v>
+        <v>10.90191064041561</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.7474390357584</v>
+        <v>16.20523766551094</v>
       </c>
       <c r="M2">
-        <v>22.19491516287845</v>
+        <v>18.51309899965772</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91696896012324</v>
+        <v>18.32661696945001</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.787789735066696</v>
+        <v>12.93698475165865</v>
       </c>
       <c r="E3">
-        <v>10.99632891769642</v>
+        <v>19.47993981927639</v>
       </c>
       <c r="F3">
-        <v>59.11773098006928</v>
+        <v>49.10284885113515</v>
       </c>
       <c r="G3">
-        <v>3.806726861283785</v>
+        <v>2.09071769622811</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.65908640749824</v>
+        <v>21.85378902630542</v>
       </c>
       <c r="J3">
-        <v>8.226498626224645</v>
+        <v>10.2782850259193</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.61413639402893</v>
+        <v>15.27516747467906</v>
       </c>
       <c r="M3">
-        <v>22.07287425272835</v>
+        <v>17.54590644575473</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.77793981204041</v>
+        <v>17.56924186806459</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.59189632741643</v>
+        <v>12.2366431923782</v>
       </c>
       <c r="E4">
-        <v>10.62257600829984</v>
+        <v>18.49584701120572</v>
       </c>
       <c r="F4">
-        <v>59.03565646412804</v>
+        <v>47.75386784003562</v>
       </c>
       <c r="G4">
-        <v>3.811185251101532</v>
+        <v>2.104093853191273</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.76445150680171</v>
+        <v>22.03568491653455</v>
       </c>
       <c r="J4">
-        <v>8.081128539723206</v>
+        <v>9.885058421509815</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.53656073116909</v>
+        <v>14.69740916708225</v>
       </c>
       <c r="M4">
-        <v>22.00276621772091</v>
+        <v>16.94495773498167</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.72220769253986</v>
+        <v>17.25490583144258</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.511735039951855</v>
+        <v>11.94526042085498</v>
       </c>
       <c r="E5">
-        <v>10.46733511127227</v>
+        <v>18.08560971505958</v>
       </c>
       <c r="F5">
-        <v>59.0070940741988</v>
+        <v>47.21559419539122</v>
       </c>
       <c r="G5">
-        <v>3.813055141024926</v>
+        <v>2.109577836026038</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.80919890771148</v>
+        <v>22.11615401753629</v>
       </c>
       <c r="J5">
-        <v>8.020780404891415</v>
+        <v>9.722092991885518</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.5060462750766</v>
+        <v>14.46027928612876</v>
       </c>
       <c r="M5">
-        <v>21.97542982131174</v>
+        <v>16.69835690110732</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.71301093874078</v>
+        <v>17.20236969426953</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.498408458140581</v>
+        <v>11.89650337996281</v>
       </c>
       <c r="E6">
-        <v>10.44138723012389</v>
+        <v>18.01691954479241</v>
       </c>
       <c r="F6">
-        <v>59.00264579514389</v>
+        <v>47.12689372417208</v>
       </c>
       <c r="G6">
-        <v>3.813368847574282</v>
+        <v>2.110490794668457</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.81673826271723</v>
+        <v>22.12988131078124</v>
       </c>
       <c r="J6">
-        <v>8.010694025498124</v>
+        <v>9.694865430610337</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.50104636198404</v>
+        <v>14.42080360825761</v>
       </c>
       <c r="M6">
-        <v>21.9709656583058</v>
+        <v>16.65730952055994</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.77718437093118</v>
+        <v>17.56502556088376</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.590816401919072</v>
+        <v>12.23273827503931</v>
       </c>
       <c r="E7">
-        <v>10.62049394513854</v>
+        <v>18.49035235820664</v>
       </c>
       <c r="F7">
-        <v>59.03525150855828</v>
+        <v>47.7465627042583</v>
       </c>
       <c r="G7">
-        <v>3.811210253886403</v>
+        <v>2.104167662117372</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.76504766757516</v>
+        <v>22.03674527452196</v>
       </c>
       <c r="J7">
-        <v>8.080319092426116</v>
+        <v>9.882871770782167</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.53614472570821</v>
+        <v>14.69421793030985</v>
       </c>
       <c r="M7">
-        <v>22.00239253152195</v>
+        <v>16.94163875342197</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.06831072099707</v>
+        <v>19.11514088674841</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.995292163529303</v>
+        <v>13.66504646777304</v>
       </c>
       <c r="E8">
-        <v>11.38451753608863</v>
+        <v>20.50006174459693</v>
       </c>
       <c r="F8">
-        <v>59.22204168870627</v>
+        <v>50.58287554636232</v>
       </c>
       <c r="G8">
-        <v>3.802149935842095</v>
+        <v>2.076520860683723</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.55286454894107</v>
+        <v>21.68322422897921</v>
       </c>
       <c r="J8">
-        <v>8.377708701307926</v>
+        <v>10.68893376161668</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.70060439783912</v>
+        <v>15.8859052498229</v>
       </c>
       <c r="M8">
-        <v>22.15184629211426</v>
+        <v>18.18109891618892</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.66366138618157</v>
+        <v>22.1107741126232</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.767969421470667</v>
+        <v>16.32224808789911</v>
       </c>
       <c r="E9">
-        <v>12.94170761164079</v>
+        <v>24.19706595640851</v>
       </c>
       <c r="F9">
-        <v>59.74308241851836</v>
+        <v>56.55971702995281</v>
       </c>
       <c r="G9">
-        <v>3.786035624901043</v>
+        <v>2.022218877192795</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.194573433328</v>
+        <v>21.24689326189176</v>
       </c>
       <c r="J9">
-        <v>8.922802476270842</v>
+        <v>12.19643345065511</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.05587311625532</v>
+        <v>18.37809231530886</v>
       </c>
       <c r="M9">
-        <v>22.48226736156673</v>
+        <v>20.89706569929874</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.1122194472147</v>
+        <v>24.32842850922094</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.3164410105269</v>
+        <v>18.22405066435071</v>
       </c>
       <c r="E10">
-        <v>14.04903400705951</v>
+        <v>26.81711323366648</v>
       </c>
       <c r="F10">
-        <v>60.22019368744353</v>
+        <v>61.28529254372016</v>
       </c>
       <c r="G10">
-        <v>3.775186408730531</v>
+        <v>1.981003672410049</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.96713553542423</v>
+        <v>21.14356573694021</v>
       </c>
       <c r="J10">
-        <v>9.298001782815417</v>
+        <v>13.27702017881901</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.33522376158716</v>
+        <v>20.37925980308354</v>
       </c>
       <c r="M10">
-        <v>22.74642249970837</v>
+        <v>23.09770647556206</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.31789890798592</v>
+        <v>25.31302848678786</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.5605838429943</v>
+        <v>19.09132904470118</v>
       </c>
       <c r="E11">
-        <v>14.52526647853484</v>
+        <v>28.0045890936824</v>
       </c>
       <c r="F11">
-        <v>60.45758442932026</v>
+        <v>63.53796947176141</v>
       </c>
       <c r="G11">
-        <v>3.770461949975112</v>
+        <v>1.961573502505765</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.87156800252384</v>
+        <v>21.16134610828385</v>
       </c>
       <c r="J11">
-        <v>9.462831948040556</v>
+        <v>13.76882149743071</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>18.46591030332662</v>
+        <v>21.28085455266073</v>
       </c>
       <c r="M11">
-        <v>22.87091817902524</v>
+        <v>24.08119455789642</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.39595175679062</v>
+        <v>25.68326149298096</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.65217820456376</v>
+        <v>19.42156555678774</v>
       </c>
       <c r="E12">
-        <v>14.70166858706045</v>
+        <v>28.455529743526</v>
       </c>
       <c r="F12">
-        <v>60.55038281411777</v>
+        <v>64.40964351857563</v>
       </c>
       <c r="G12">
-        <v>3.768702945745825</v>
+        <v>1.954072263860147</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.83652543529168</v>
+        <v>21.17929840653018</v>
       </c>
       <c r="J12">
-        <v>9.524380959978568</v>
+        <v>13.95582337112298</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18.51588326675707</v>
+        <v>21.62222828866078</v>
       </c>
       <c r="M12">
-        <v>22.91865519168595</v>
+        <v>24.45223001183366</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.37913533962686</v>
+        <v>25.60362464529528</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.63249111543547</v>
+        <v>19.35033316624187</v>
       </c>
       <c r="E13">
-        <v>14.66385203853512</v>
+        <v>28.35831829796073</v>
       </c>
       <c r="F13">
-        <v>60.53026830372915</v>
+        <v>64.22100763855153</v>
       </c>
       <c r="G13">
-        <v>3.769080446991579</v>
+        <v>1.955695050084416</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.84402128928639</v>
+        <v>21.17489781106253</v>
       </c>
       <c r="J13">
-        <v>9.511164314114136</v>
+        <v>13.9155006198225</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>18.50509968397329</v>
+        <v>21.54868562361209</v>
       </c>
       <c r="M13">
-        <v>22.9083482685589</v>
+        <v>24.37236079878925</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.32431740959687</v>
+        <v>25.34353421421855</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.56813700586099</v>
+        <v>19.11845103447586</v>
       </c>
       <c r="E14">
-        <v>14.53985798200242</v>
+        <v>28.0416497655952</v>
       </c>
       <c r="F14">
-        <v>60.46516096543761</v>
+        <v>63.60928213140105</v>
       </c>
       <c r="G14">
-        <v>3.770316635098171</v>
+        <v>1.960959557769123</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.86866197931935</v>
+        <v>21.16258567068266</v>
       </c>
       <c r="J14">
-        <v>9.467913176353221</v>
+        <v>13.7841857736398</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>18.47001209090207</v>
+        <v>21.30893205722478</v>
       </c>
       <c r="M14">
-        <v>22.8748338154356</v>
+        <v>24.11173996449199</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.29075953823999</v>
+        <v>25.18391130001507</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.52860422491552</v>
+        <v>18.97670599030668</v>
       </c>
       <c r="E15">
-        <v>14.46339588905622</v>
+        <v>27.8479130358302</v>
       </c>
       <c r="F15">
-        <v>60.42565820947424</v>
+        <v>63.23714698346981</v>
       </c>
       <c r="G15">
-        <v>3.77107774045368</v>
+        <v>1.964163948016335</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.88390480456717</v>
+        <v>21.15656940252533</v>
       </c>
       <c r="J15">
-        <v>9.441306727810586</v>
+        <v>13.70387758229664</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>18.44858203786578</v>
+        <v>21.16211331755666</v>
       </c>
       <c r="M15">
-        <v>22.85438160602085</v>
+        <v>23.95196078807851</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.09880477053103</v>
+        <v>24.26366372493185</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.30037022246543</v>
+        <v>18.16753390216363</v>
       </c>
       <c r="E16">
-        <v>14.01735923148753</v>
+        <v>26.73957013618805</v>
       </c>
       <c r="F16">
-        <v>60.20508734059523</v>
+        <v>61.14044350320677</v>
       </c>
       <c r="G16">
-        <v>3.77549938308445</v>
+        <v>1.982256186828971</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.97354094183929</v>
+        <v>21.14386024359334</v>
       </c>
       <c r="J16">
-        <v>9.2871096185787</v>
+        <v>13.2449418855634</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.32675280554567</v>
+        <v>20.3202583905037</v>
       </c>
       <c r="M16">
-        <v>22.73837105188995</v>
+        <v>23.03316925640042</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.98141534047983</v>
+        <v>23.69345960119005</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.15891848896422</v>
+        <v>17.67262017670838</v>
       </c>
       <c r="E17">
-        <v>13.73669947336092</v>
+        <v>26.05969428426022</v>
       </c>
       <c r="F17">
-        <v>60.0749722165514</v>
+        <v>59.88287554819222</v>
       </c>
       <c r="G17">
-        <v>3.778265735104799</v>
+        <v>1.993152380612076</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.03055999830432</v>
+        <v>21.15387916372679</v>
       </c>
       <c r="J17">
-        <v>9.190995933292697</v>
+        <v>12.96391074000728</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.25291475682493</v>
+        <v>19.80232569694576</v>
       </c>
       <c r="M17">
-        <v>22.66829075083551</v>
+        <v>22.46572743578823</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.91405329373957</v>
+        <v>23.36314885193877</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.07705921973924</v>
+        <v>17.38804833300362</v>
       </c>
       <c r="E18">
-        <v>13.57268222685081</v>
+        <v>25.66809278920741</v>
       </c>
       <c r="F18">
-        <v>60.00205066128411</v>
+        <v>59.16895458336898</v>
       </c>
       <c r="G18">
-        <v>3.779876735878838</v>
+        <v>1.999358838000618</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.06409827050709</v>
+        <v>21.16560379249282</v>
       </c>
       <c r="J18">
-        <v>9.135164703303607</v>
+        <v>12.80223594125163</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.21078681706385</v>
+        <v>19.50351107691151</v>
       </c>
       <c r="M18">
-        <v>22.62839182593248</v>
+        <v>22.13760993080264</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.89127474547511</v>
+        <v>23.25088616425729</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.04926001168367</v>
+        <v>17.29167359204212</v>
       </c>
       <c r="E19">
-        <v>13.51670361829569</v>
+        <v>25.53535889242057</v>
       </c>
       <c r="F19">
-        <v>59.97769055493888</v>
+        <v>58.92875219286537</v>
       </c>
       <c r="G19">
-        <v>3.780425614011015</v>
+        <v>2.001450980970948</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.07558091972426</v>
+        <v>21.17054639058937</v>
       </c>
       <c r="J19">
-        <v>9.116167770558986</v>
+        <v>12.74747132532889</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.19658274212692</v>
+        <v>19.40214923598275</v>
       </c>
       <c r="M19">
-        <v>22.61495393356644</v>
+        <v>22.02618650218892</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.99389586406276</v>
+        <v>23.75439595078549</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.17402867202632</v>
+        <v>17.72528581626974</v>
       </c>
       <c r="E20">
-        <v>13.76684403491303</v>
+        <v>26.13211367812125</v>
       </c>
       <c r="F20">
-        <v>60.08862491421206</v>
+        <v>60.01574963785924</v>
       </c>
       <c r="G20">
-        <v>3.777969197958515</v>
+        <v>1.991999036209973</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.02441330279088</v>
+        <v>21.15218317526072</v>
       </c>
       <c r="J20">
-        <v>9.201284445263918</v>
+        <v>12.99382585204985</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.2607398174844</v>
+        <v>19.85754737171513</v>
       </c>
       <c r="M20">
-        <v>22.67570875643645</v>
+        <v>22.52630543904651</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.34041477946191</v>
+        <v>25.41999173591563</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.58706327197217</v>
+        <v>19.18649671693218</v>
       </c>
       <c r="E21">
-        <v>14.57638474174765</v>
+        <v>28.13461038021885</v>
       </c>
       <c r="F21">
-        <v>60.48420597421145</v>
+        <v>63.78841738830953</v>
       </c>
       <c r="G21">
-        <v>3.76995272350765</v>
+        <v>1.959417571317095</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.86139319488115</v>
+        <v>21.16588011406114</v>
       </c>
       <c r="J21">
-        <v>9.480640860664957</v>
+        <v>13.82272820051127</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>18.48030528554079</v>
+        <v>21.3793429965504</v>
       </c>
       <c r="M21">
-        <v>22.88466196308875</v>
+        <v>24.18831754284144</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.56782485884973</v>
+        <v>26.49394210302075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.85197557868233</v>
+        <v>20.15316163622133</v>
       </c>
       <c r="E22">
-        <v>15.0825287064136</v>
+        <v>29.45212887734622</v>
       </c>
       <c r="F22">
-        <v>60.75965123602337</v>
+        <v>66.36562050541315</v>
       </c>
       <c r="G22">
-        <v>3.764888491615592</v>
+        <v>1.937254841032361</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.7615400188303</v>
+        <v>21.24147254027331</v>
       </c>
       <c r="J22">
-        <v>9.658142986035438</v>
+        <v>14.36948099775628</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.62661352816326</v>
+        <v>22.37456099099666</v>
       </c>
       <c r="M22">
-        <v>23.02466827444046</v>
+        <v>25.26724485408949</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.44638787110157</v>
+        <v>25.92172795164023</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.71107309643008</v>
+        <v>19.63553142037427</v>
       </c>
       <c r="E23">
-        <v>14.81448291778657</v>
+        <v>28.74734219681343</v>
       </c>
       <c r="F23">
-        <v>60.61110263108225</v>
+        <v>64.97824289546178</v>
       </c>
       <c r="G23">
-        <v>3.767575448818685</v>
+        <v>1.949182092972473</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.81421753613124</v>
+        <v>21.19427313485544</v>
       </c>
       <c r="J23">
-        <v>9.563879257379353</v>
+        <v>14.0768959539049</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>18.54828044544739</v>
+        <v>21.8428260259853</v>
       </c>
       <c r="M23">
-        <v>22.94963918628403</v>
+        <v>24.69159375805765</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.98825301956761</v>
+        <v>23.72685445343284</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.16719902354935</v>
+        <v>17.70147591023704</v>
       </c>
       <c r="E24">
-        <v>13.75322397211078</v>
+        <v>26.09937528440739</v>
       </c>
       <c r="F24">
-        <v>60.08244666169225</v>
+        <v>59.95564927385939</v>
       </c>
       <c r="G24">
-        <v>3.778103198252965</v>
+        <v>1.992520640360395</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.02718986601108</v>
+        <v>21.15293149058205</v>
       </c>
       <c r="J24">
-        <v>9.196634795370674</v>
+        <v>12.98030161256106</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.25720110034989</v>
+        <v>19.83258500390285</v>
       </c>
       <c r="M24">
-        <v>22.67235385546218</v>
+        <v>22.49892408444082</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.50037099996322</v>
+        <v>21.26806089081536</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.561870708379365</v>
+        <v>15.61586742328453</v>
       </c>
       <c r="E25">
-        <v>12.50943926121774</v>
+        <v>23.21834186903165</v>
       </c>
       <c r="F25">
-        <v>59.58553917939218</v>
+        <v>54.89180829097005</v>
       </c>
       <c r="G25">
-        <v>3.790219839928816</v>
+        <v>2.037031916396455</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.28525582773582</v>
+        <v>21.33185798187982</v>
       </c>
       <c r="J25">
-        <v>8.779643782359665</v>
+        <v>11.79496017315835</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.95641902724421</v>
+        <v>17.62699497794187</v>
       </c>
       <c r="M25">
-        <v>22.38901748646011</v>
+        <v>20.06501638745478</v>
       </c>
       <c r="N25">
         <v>0</v>
